--- a/amath583work/final/problem1.xlsx
+++ b/amath583work/final/problem1.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15720" windowHeight="14280" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22300" windowHeight="14280" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Regular" sheetId="5" r:id="rId1"/>
     <sheet name="Extra" sheetId="4" r:id="rId2"/>
     <sheet name="More" sheetId="6" r:id="rId3"/>
+    <sheet name="P2" sheetId="7" r:id="rId4"/>
+    <sheet name="P3" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -64,6 +66,34 @@
   </si>
   <si>
     <t>Small</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qsub -pe mpi 1 -b y -cwd mpirun ./ir-* 128</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qsub -pe mpi 1 -b y -cwd mpirun ./cg-* 128</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpi, 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpi, 16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpi, 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpi, 16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -121,12 +151,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -842,11 +874,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-589267264"/>
-        <c:axId val="-616981648"/>
+        <c:axId val="-176494544"/>
+        <c:axId val="-135828480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-589267264"/>
+        <c:axId val="-176494544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +938,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -966,12 +997,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-616981648"/>
+        <c:crossAx val="-135828480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-616981648"/>
+        <c:axId val="-135828480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1086,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1082,6 +1112,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1114,7 +1145,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-589267264"/>
+        <c:crossAx val="-176494544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1930,11 +1961,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-612628048"/>
-        <c:axId val="-615273632"/>
+        <c:axId val="-145879856"/>
+        <c:axId val="-97099584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-612628048"/>
+        <c:axId val="-145879856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,12 +2085,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-615273632"/>
+        <c:crossAx val="-97099584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-615273632"/>
+        <c:axId val="-97099584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,7 +2233,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-612628048"/>
+        <c:crossAx val="-145879856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2289,6 +2320,3047 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0474953936156546"/>
+          <c:y val="0.122310058362521"/>
+          <c:w val="0.939832818583181"/>
+          <c:h val="0.743421874133231"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P2'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P2'!$A$2:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.38913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.00366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.800105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.672069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.517466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.466628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.425991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.392671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.364792</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.341076</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.320626</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.302786</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.287069</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.273104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260602</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.249337</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.239126</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.229823</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.221307</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.213479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.206255</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.199565</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.19335</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.187558</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.182147</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.177079</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17232</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.167842</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.16362</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.159631</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.155857</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.152279</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.148882</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.145652</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.142576</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.139644</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.136844</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.134169</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.131609</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.129156</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.126805</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.124548</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.122379</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.120294</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.118287</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.116355</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.114492</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.112694</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.11096</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.109284</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.107664</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.106096</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.10458</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.103111</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.101688</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.100308</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0989689</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0976697</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0964081</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0951824</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0939911</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0928327</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0917058</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.090609</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0895411</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.088501</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0874875</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0864996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0855363</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0845966</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0836796</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0827845</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0819105</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0810568</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0802227</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0794074</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0786104</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.077831</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0770686</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0763226</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0755925</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0748777</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0741778</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0734922</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0728206</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0721625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0715174</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0708849</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0702648</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0696565</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0690598</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0684743</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0678997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0673357</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0667819</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0662382</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0657041</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0651794</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.064664</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0641574</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0636595</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0631701</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.062689</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.0622158</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.0617504</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0612927</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.0608424</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0603993</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0599633</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0595341</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0591116</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0586957</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.0582862</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.0578829</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.0574857</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0570945</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.056709</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.0563292</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.055955</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.0555862</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.0552227</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.0548644</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.0545111</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.0541628</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.0538193</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.0534806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpi, 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P2'!$B$2:$B$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>2.82843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.57371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.13773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.907445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.762566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.661991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.587589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.530042</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.484038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.446313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.414745</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.387891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.364731</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.344527</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.326725</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.310906</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.296744</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.283982</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.272414</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.261874</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.252225</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.243355</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.235168</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.227587</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.220543</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.213979</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.207846</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.202101</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.196706</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19163</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.186844</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.182322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.178043</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.173986</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.170134</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.166471</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.162984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.159658</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.156484</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.153449</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.150546</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.147764</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.145097</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.142537</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.140077</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.137712</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.135435</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.133243</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.131129</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12909</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.127122</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.12522</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.123382</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.121604</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.119883</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.118216</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.116601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.115035</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.113515</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.112041</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.110609</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.109218</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.107866</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.106551</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.105272</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.104027</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.102814</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.101634</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.100483</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0993616</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0982679</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.097201</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0961599</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0951436</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0941513</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0931819</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0922348</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0913091</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.090404</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0895189</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0886531</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0878059</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0869768</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.086165</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0853701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0845915</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0838286</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0830811</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0823484</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.08163</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0809256</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0802346</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0795568</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0788917</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0782389</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0775982</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.076969</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0763513</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0757445</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0751484</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.0745627</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0739872</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0734215</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0728654</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0723187</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.071781</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.0712522</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0707321</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.0702203</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0697168</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0692213</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0687335</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0682534</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0677808</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.0673153</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.066857</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.0664055</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0659608</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.0655227</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.0650911</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.0646657</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.0642465</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.0638333</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.0634259</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.0630244</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.0626284</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.0622379</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.0618529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpi, 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P2'!$C$2:$C$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>2.82843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.57371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.13773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.907445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.762566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.661991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.587589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.530042</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.484038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.446313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.414745</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.387891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.364731</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.344527</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.326725</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.310906</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.296744</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.283982</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.272414</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.261874</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.252225</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.243355</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.235168</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.227587</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.220543</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.213979</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.207846</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.202101</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.196706</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19163</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.186844</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.182322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.178043</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.173986</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.170134</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.166471</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.162984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.159658</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.156484</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.153449</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.150546</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.147764</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.145097</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.142537</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.140077</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.137712</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.135435</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.133243</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.131129</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12909</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.127122</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.12522</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.123382</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.121604</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.119883</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.118216</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.116601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.115035</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.113515</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.112041</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.110609</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.109218</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.107866</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.106551</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.105272</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.104027</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.102814</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.101634</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.100483</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0993616</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0982679</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.097201</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0961599</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0951436</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0941513</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0931819</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0922348</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0913091</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.090404</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0895189</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0886531</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0878059</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0869768</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.086165</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0853701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0845915</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0838286</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0830811</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0823484</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.08163</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0809256</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0802346</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0795568</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0788917</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0782389</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0775982</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.076969</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0763513</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0757445</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0751484</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.0745627</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0739872</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0734215</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0728654</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0723187</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.071781</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.0712522</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0707321</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.0702203</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0697168</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0692213</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0687335</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0682534</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0677808</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.0673153</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.066857</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.0664055</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0659608</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.0655227</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.0650911</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.0646657</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.0642465</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.0638333</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.0634259</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.0630244</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.0626284</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.0622379</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.0618529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-91587024"/>
+        <c:axId val="-89587088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-91587024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-89587088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-89587088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-91587024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0398891450971491"/>
+          <c:y val="0.11958994380072"/>
+          <c:w val="0.939832818583181"/>
+          <c:h val="0.743421874133231"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P3'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P3'!$A$2:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>2.82843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.970212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.873841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.724854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.613121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.558416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.448929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.373312</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.331106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.318423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.286728</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.276914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.252453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.244474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.225144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.218444</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.202854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1971</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.184306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.179284</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.168626</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.164188</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.155191</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.151231</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.143549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.139988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.133362</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.130138</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12437</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.121435</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.116375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11369</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.109218</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10675</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.102772</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.100496</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0969359</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0948292</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0916257</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0896695</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0867726</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0849509</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0823192</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0806182</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0782174</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0766251</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0744262</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0729323</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0709111</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0695064</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0676422</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0663188</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0645939</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0633447</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.061744</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0605627</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0590732</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0579542</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0565644</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0555028</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0542029</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0531941</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0519755</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0510155</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0498705</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0489557</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0478776</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0470048</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0459877</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0451537</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0441924</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0433947</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0424843</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0417203</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0408568</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0401243</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0393038</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0386008</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.03782</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0371445</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0364003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0357506</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0350402</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0344147</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0337356</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0331327</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0324823</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0318998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0312756</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0307133</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0301179</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0295814</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0290184</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0285038</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0279598</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0274589</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0269408</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.0264659</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0259697</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0255067</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0250326</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.024593</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.0241367</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.0237096</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0232765</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.0228673</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0224474</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0220554</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0216557</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0212743</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0208917</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.0205272</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.0201566</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.0198066</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0194526</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.0191124</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.018774</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.0184468</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.0181193</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.0178062</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.0174904</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.0171875</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.0168859</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.0165919</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.0163023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P3'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpi, 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P3'!$B$2:$B$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>2.82843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.970212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.873841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.724854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.613121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.558416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.448929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.373312</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.331106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.318423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.286728</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.276914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.252453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.244474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.225144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.218444</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.202854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1971</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.184306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.179284</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.168626</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.164188</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.155191</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.151231</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.143549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.139988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.133362</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.130138</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12437</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.121435</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.116375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11369</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.109218</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10675</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.102772</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.100496</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0969359</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0948292</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0916257</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0896695</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0867726</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0849509</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0823192</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0806182</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0782174</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0766251</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0744262</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0729323</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0709111</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0695064</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0676422</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0663188</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0645939</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0633447</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.061744</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0605627</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0590732</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0579542</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0565644</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0555028</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0542029</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0531941</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0519755</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0510155</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0498705</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0489557</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0478776</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0470048</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0459877</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0451537</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0441924</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0433947</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0424843</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0417203</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0408568</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0401243</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0393038</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0386008</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.03782</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0371445</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0364003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0357506</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0350402</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0344147</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0337356</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0331327</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0324823</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0318998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0312756</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0307133</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0301179</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0295814</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0290184</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0285038</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0279598</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0274589</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0269408</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.0264659</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0259697</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0255067</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0250326</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.024593</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.0241367</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.0237096</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0232765</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.0228673</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0224474</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0220554</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0216557</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0212743</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0208917</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.0205272</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.0201566</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.0198066</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0194526</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.0191124</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.018774</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.0184468</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.0181193</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.0178062</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.0174904</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.0171875</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.0168859</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.0165919</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.0163023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P3'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpi, 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P3'!$C$2:$C$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>2.82843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.970212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.873841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.724854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.613121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.558416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.448929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.373312</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.331106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.318423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.286728</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.276914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.252453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.244474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.225144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.218444</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.202854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1971</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.184306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.179284</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.168626</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.164188</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.155191</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.151231</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.143549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.139988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.133362</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.130138</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12437</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.121435</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.116375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11369</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.109218</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10675</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.102772</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.100496</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.096934</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0948105</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0914902</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.088944</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0839774</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0771758</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0671587</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0582445</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0487841</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0377597</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0332086</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0370598</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.038025</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0380493</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0357357</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.032628</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0345121</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0377111</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0323346</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0301876</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0326068</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0331613</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0302479</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0299766</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0328273</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0313917</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0283119</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0292653</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0306551</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0289485</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0277636</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0292697</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0290371</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.027506</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0277925</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0283383</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.027433</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0272147</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0271442</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.026762</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0267775</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0269993</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0261237</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0257936</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0258698</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0255995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0249764</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0252848</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0252342</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0247667</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0244216</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0242942</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0240198</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0239781</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0236441</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0233516</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0233927</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0232748</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.022633</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0226165</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0227198</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.022178</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.02186</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0220404</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0216246</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0212779</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.021409</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.0210123</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0204482</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.0204764</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0200735</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0192285</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0190349</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.018662</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0174713</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.0166703</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.0162351</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.0152187</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0143725</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.0141371</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.0138781</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.0139471</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.0149849</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.0159144</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.0160961</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.0155131</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.0142843</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.0141373</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.015741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-38302768"/>
+        <c:axId val="-84920592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-38302768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-84920592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-84920592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-38302768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2330,6 +5402,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3327,6 +6479,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3401,10 +7559,82 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240187</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314961</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>118088</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514507</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589281</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19028</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="视点">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3412,34 +7642,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="323232"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E3DED1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="F07F09"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="9F2936"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="1B587C"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="4E8542"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="604878"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="C19859"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="6B9F25"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="B26B02"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -5262,7 +9492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A5" zoomScale="125" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -5547,4 +9777,2890 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D129"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2.82843</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2.82843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1.38913</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.5737099999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.5737099999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1.00366</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.1377299999999999</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.1377299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>0.80010499999999996</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.90744499999999995</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.90744499999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>0.67206900000000003</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.76256599999999997</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.76256599999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.661991</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.661991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>0.51746599999999998</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.58758900000000003</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.58758900000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>0.46662799999999999</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.53004200000000001</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.53004200000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>0.42599100000000001</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.48403800000000002</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.48403800000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>0.39267099999999999</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.44631300000000002</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.44631300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>0.36479200000000001</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.41474499999999997</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.41474499999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>0.34107599999999999</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.38789099999999999</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.38789099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>0.32062600000000002</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.36473100000000003</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.36473100000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>0.302786</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.34452700000000003</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.34452700000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>0.28706900000000002</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.32672499999999999</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.32672499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>0.27310400000000001</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.31090600000000002</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.31090600000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>0.260602</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.29674400000000001</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.29674400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>0.249337</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.28398200000000001</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.28398200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>0.23912600000000001</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.27241399999999999</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.27241399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>0.229823</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.261874</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.261874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>0.221307</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.25222499999999998</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.25222499999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>0.213479</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.24335499999999999</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.24335499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>0.20625499999999999</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.23516799999999999</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.23516799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>0.19956499999999999</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.22758700000000001</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.22758700000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>0.19334999999999999</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.22054299999999999</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.22054299999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>0.187558</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.213979</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.213979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>0.182147</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.207846</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.207846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>0.17707899999999999</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.202101</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.202101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>0.17232</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.19670599999999999</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.19670599999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>0.16784199999999999</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.19162999999999999</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.19162999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>0.16361999999999999</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.18684400000000001</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.18684400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>0.159631</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.18232200000000001</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.18232200000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>0.155857</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0.17804300000000001</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.17804300000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>0.152279</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0.173986</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.173986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>0.14888199999999999</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.17013400000000001</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.17013400000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>0.145652</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.16647100000000001</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.16647100000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>0.14257600000000001</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.16298399999999999</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.16298399999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>0.13964399999999999</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.15965799999999999</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.15965799999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>0.13684399999999999</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.15648400000000001</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.15648400000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>0.13416900000000001</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.153449</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.153449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>0.131609</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.15054600000000001</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.15054600000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>0.12915599999999999</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.14776400000000001</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.14776400000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>0.126805</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.145097</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.145097</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>0.12454800000000001</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.142537</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.142537</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>0.122379</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.14007700000000001</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.14007700000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>0.120294</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0.137712</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.137712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>0.118287</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0.135435</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.135435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>0.116355</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.133243</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.133243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>0.114492</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.131129</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.131129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>0.112694</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0.12909000000000001</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.12909000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>0.11096</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0.12712200000000001</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.12712200000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>0.10928400000000001</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0.12522</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.12522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>0.107664</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0.12338200000000001</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.12338200000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>0.106096</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.121604</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.121604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>0.10458000000000001</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.119883</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.119883</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>0.10311099999999999</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0.118216</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.118216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>0.101688</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0.116601</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.116601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>0.10030799999999999</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0.115035</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.115035</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>9.8968899999999999E-2</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0.113515</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0.113515</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>9.7669699999999998E-2</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.112041</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0.112041</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>9.6408099999999997E-2</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0.110609</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0.110609</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>9.51824E-2</v>
+      </c>
+      <c r="B63" s="6">
+        <v>0.109218</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0.109218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>9.3991099999999994E-2</v>
+      </c>
+      <c r="B64" s="6">
+        <v>0.107866</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0.107866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>9.2832700000000004E-2</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0.10655100000000001</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0.10655100000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>9.1705800000000004E-2</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0.105272</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0.105272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>9.0608999999999995E-2</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0.10402699999999999</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0.10402699999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>8.9541099999999998E-2</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0.102814</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0.102814</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>8.8500999999999996E-2</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.101634</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0.101634</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>8.7487499999999996E-2</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0.100483</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0.100483</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>8.6499599999999996E-2</v>
+      </c>
+      <c r="B71" s="6">
+        <v>9.9361599999999994E-2</v>
+      </c>
+      <c r="C71" s="6">
+        <v>9.9361599999999994E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>8.5536299999999996E-2</v>
+      </c>
+      <c r="B72" s="6">
+        <v>9.8267900000000005E-2</v>
+      </c>
+      <c r="C72" s="6">
+        <v>9.8267900000000005E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>8.4596599999999994E-2</v>
+      </c>
+      <c r="B73" s="6">
+        <v>9.7200999999999996E-2</v>
+      </c>
+      <c r="C73" s="6">
+        <v>9.7200999999999996E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>8.3679600000000007E-2</v>
+      </c>
+      <c r="B74" s="6">
+        <v>9.6159900000000006E-2</v>
+      </c>
+      <c r="C74" s="6">
+        <v>9.6159900000000006E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>8.2784499999999997E-2</v>
+      </c>
+      <c r="B75" s="6">
+        <v>9.5143599999999995E-2</v>
+      </c>
+      <c r="C75" s="6">
+        <v>9.5143599999999995E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>8.1910499999999997E-2</v>
+      </c>
+      <c r="B76" s="6">
+        <v>9.4151299999999993E-2</v>
+      </c>
+      <c r="C76" s="6">
+        <v>9.4151299999999993E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>8.1056799999999998E-2</v>
+      </c>
+      <c r="B77" s="6">
+        <v>9.3181899999999998E-2</v>
+      </c>
+      <c r="C77" s="6">
+        <v>9.3181899999999998E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>8.0222699999999994E-2</v>
+      </c>
+      <c r="B78" s="6">
+        <v>9.2234800000000006E-2</v>
+      </c>
+      <c r="C78" s="6">
+        <v>9.2234800000000006E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>7.9407400000000003E-2</v>
+      </c>
+      <c r="B79" s="6">
+        <v>9.1309100000000004E-2</v>
+      </c>
+      <c r="C79" s="6">
+        <v>9.1309100000000004E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>7.8610399999999997E-2</v>
+      </c>
+      <c r="B80" s="6">
+        <v>9.0403999999999998E-2</v>
+      </c>
+      <c r="C80" s="6">
+        <v>9.0403999999999998E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>7.7830999999999997E-2</v>
+      </c>
+      <c r="B81" s="6">
+        <v>8.9518899999999998E-2</v>
+      </c>
+      <c r="C81" s="6">
+        <v>8.9518899999999998E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>7.7068600000000001E-2</v>
+      </c>
+      <c r="B82" s="6">
+        <v>8.8653099999999999E-2</v>
+      </c>
+      <c r="C82" s="6">
+        <v>8.8653099999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>7.6322600000000004E-2</v>
+      </c>
+      <c r="B83" s="6">
+        <v>8.7805900000000006E-2</v>
+      </c>
+      <c r="C83" s="6">
+        <v>8.7805900000000006E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>7.5592500000000007E-2</v>
+      </c>
+      <c r="B84" s="6">
+        <v>8.6976800000000007E-2</v>
+      </c>
+      <c r="C84" s="6">
+        <v>8.6976800000000007E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>7.4877700000000005E-2</v>
+      </c>
+      <c r="B85" s="6">
+        <v>8.6165000000000005E-2</v>
+      </c>
+      <c r="C85" s="6">
+        <v>8.6165000000000005E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>7.4177800000000002E-2</v>
+      </c>
+      <c r="B86" s="6">
+        <v>8.5370100000000004E-2</v>
+      </c>
+      <c r="C86" s="6">
+        <v>8.5370100000000004E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>7.3492199999999994E-2</v>
+      </c>
+      <c r="B87" s="6">
+        <v>8.45915E-2</v>
+      </c>
+      <c r="C87" s="6">
+        <v>8.45915E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>7.2820599999999999E-2</v>
+      </c>
+      <c r="B88" s="6">
+        <v>8.3828600000000003E-2</v>
+      </c>
+      <c r="C88" s="6">
+        <v>8.3828600000000003E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>7.2162500000000004E-2</v>
+      </c>
+      <c r="B89" s="6">
+        <v>8.3081100000000005E-2</v>
+      </c>
+      <c r="C89" s="6">
+        <v>8.3081100000000005E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>7.1517399999999995E-2</v>
+      </c>
+      <c r="B90" s="6">
+        <v>8.2348400000000002E-2</v>
+      </c>
+      <c r="C90" s="6">
+        <v>8.2348400000000002E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>7.0884900000000001E-2</v>
+      </c>
+      <c r="B91" s="6">
+        <v>8.1629999999999994E-2</v>
+      </c>
+      <c r="C91" s="6">
+        <v>8.1629999999999994E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>7.0264800000000002E-2</v>
+      </c>
+      <c r="B92" s="6">
+        <v>8.09256E-2</v>
+      </c>
+      <c r="C92" s="6">
+        <v>8.09256E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>6.9656499999999996E-2</v>
+      </c>
+      <c r="B93" s="6">
+        <v>8.0234600000000003E-2</v>
+      </c>
+      <c r="C93" s="6">
+        <v>8.0234600000000003E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>6.9059800000000005E-2</v>
+      </c>
+      <c r="B94" s="6">
+        <v>7.9556799999999997E-2</v>
+      </c>
+      <c r="C94" s="6">
+        <v>7.9556799999999997E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>6.8474300000000002E-2</v>
+      </c>
+      <c r="B95" s="6">
+        <v>7.8891699999999995E-2</v>
+      </c>
+      <c r="C95" s="6">
+        <v>7.8891699999999995E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>6.7899699999999993E-2</v>
+      </c>
+      <c r="B96" s="6">
+        <v>7.82389E-2</v>
+      </c>
+      <c r="C96" s="6">
+        <v>7.82389E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>6.7335699999999998E-2</v>
+      </c>
+      <c r="B97" s="6">
+        <v>7.7598200000000006E-2</v>
+      </c>
+      <c r="C97" s="6">
+        <v>7.7598200000000006E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>6.6781900000000005E-2</v>
+      </c>
+      <c r="B98" s="6">
+        <v>7.6968999999999996E-2</v>
+      </c>
+      <c r="C98" s="6">
+        <v>7.6968999999999996E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>6.6238199999999997E-2</v>
+      </c>
+      <c r="B99" s="6">
+        <v>7.6351299999999997E-2</v>
+      </c>
+      <c r="C99" s="6">
+        <v>7.6351299999999997E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>6.5704100000000001E-2</v>
+      </c>
+      <c r="B100" s="6">
+        <v>7.5744500000000006E-2</v>
+      </c>
+      <c r="C100" s="6">
+        <v>7.5744500000000006E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>6.5179399999999998E-2</v>
+      </c>
+      <c r="B101" s="6">
+        <v>7.5148400000000004E-2</v>
+      </c>
+      <c r="C101" s="6">
+        <v>7.5148400000000004E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>6.4663999999999999E-2</v>
+      </c>
+      <c r="B102" s="6">
+        <v>7.4562699999999996E-2</v>
+      </c>
+      <c r="C102" s="6">
+        <v>7.4562699999999996E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>6.4157400000000003E-2</v>
+      </c>
+      <c r="B103" s="6">
+        <v>7.3987200000000003E-2</v>
+      </c>
+      <c r="C103" s="6">
+        <v>7.3987200000000003E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>6.3659499999999994E-2</v>
+      </c>
+      <c r="B104" s="6">
+        <v>7.3421500000000001E-2</v>
+      </c>
+      <c r="C104" s="6">
+        <v>7.3421500000000001E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>6.3170100000000007E-2</v>
+      </c>
+      <c r="B105" s="6">
+        <v>7.2865399999999997E-2</v>
+      </c>
+      <c r="C105" s="6">
+        <v>7.2865399999999997E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>6.2688999999999995E-2</v>
+      </c>
+      <c r="B106" s="6">
+        <v>7.23187E-2</v>
+      </c>
+      <c r="C106" s="6">
+        <v>7.23187E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>6.2215800000000002E-2</v>
+      </c>
+      <c r="B107" s="6">
+        <v>7.1780999999999998E-2</v>
+      </c>
+      <c r="C107" s="6">
+        <v>7.1780999999999998E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>6.1750399999999997E-2</v>
+      </c>
+      <c r="B108" s="6">
+        <v>7.1252200000000002E-2</v>
+      </c>
+      <c r="C108" s="6">
+        <v>7.1252200000000002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>6.1292699999999999E-2</v>
+      </c>
+      <c r="B109" s="6">
+        <v>7.0732100000000006E-2</v>
+      </c>
+      <c r="C109" s="6">
+        <v>7.0732100000000006E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>6.0842399999999998E-2</v>
+      </c>
+      <c r="B110" s="6">
+        <v>7.0220299999999999E-2</v>
+      </c>
+      <c r="C110" s="6">
+        <v>7.0220299999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>6.0399300000000003E-2</v>
+      </c>
+      <c r="B111" s="6">
+        <v>6.9716799999999995E-2</v>
+      </c>
+      <c r="C111" s="6">
+        <v>6.9716799999999995E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>5.9963299999999997E-2</v>
+      </c>
+      <c r="B112" s="6">
+        <v>6.9221299999999999E-2</v>
+      </c>
+      <c r="C112" s="6">
+        <v>6.9221299999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>5.95341E-2</v>
+      </c>
+      <c r="B113" s="6">
+        <v>6.8733500000000003E-2</v>
+      </c>
+      <c r="C113" s="6">
+        <v>6.8733500000000003E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>5.91116E-2</v>
+      </c>
+      <c r="B114" s="6">
+        <v>6.8253400000000006E-2</v>
+      </c>
+      <c r="C114" s="6">
+        <v>6.8253400000000006E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>5.8695700000000003E-2</v>
+      </c>
+      <c r="B115" s="6">
+        <v>6.7780800000000002E-2</v>
+      </c>
+      <c r="C115" s="6">
+        <v>6.7780800000000002E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>5.8286200000000003E-2</v>
+      </c>
+      <c r="B116" s="6">
+        <v>6.7315299999999995E-2</v>
+      </c>
+      <c r="C116" s="6">
+        <v>6.7315299999999995E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>5.7882900000000001E-2</v>
+      </c>
+      <c r="B117" s="6">
+        <v>6.6857E-2</v>
+      </c>
+      <c r="C117" s="6">
+        <v>6.6857E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>5.7485700000000001E-2</v>
+      </c>
+      <c r="B118" s="6">
+        <v>6.6405500000000006E-2</v>
+      </c>
+      <c r="C118" s="6">
+        <v>6.6405500000000006E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>5.7094499999999999E-2</v>
+      </c>
+      <c r="B119" s="6">
+        <v>6.59608E-2</v>
+      </c>
+      <c r="C119" s="6">
+        <v>6.59608E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>5.6709000000000002E-2</v>
+      </c>
+      <c r="B120" s="6">
+        <v>6.5522700000000003E-2</v>
+      </c>
+      <c r="C120" s="6">
+        <v>6.5522700000000003E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>5.6329200000000003E-2</v>
+      </c>
+      <c r="B121" s="6">
+        <v>6.5091099999999999E-2</v>
+      </c>
+      <c r="C121" s="6">
+        <v>6.5091099999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>5.5954999999999998E-2</v>
+      </c>
+      <c r="B122" s="6">
+        <v>6.4665700000000007E-2</v>
+      </c>
+      <c r="C122" s="6">
+        <v>6.4665700000000007E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>5.5586200000000002E-2</v>
+      </c>
+      <c r="B123" s="6">
+        <v>6.4246499999999998E-2</v>
+      </c>
+      <c r="C123" s="6">
+        <v>6.4246499999999998E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>5.52227E-2</v>
+      </c>
+      <c r="B124" s="6">
+        <v>6.3833299999999996E-2</v>
+      </c>
+      <c r="C124" s="6">
+        <v>6.3833299999999996E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>5.4864400000000001E-2</v>
+      </c>
+      <c r="B125" s="6">
+        <v>6.3425899999999993E-2</v>
+      </c>
+      <c r="C125" s="6">
+        <v>6.3425899999999993E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>5.45111E-2</v>
+      </c>
+      <c r="B126" s="6">
+        <v>6.3024399999999994E-2</v>
+      </c>
+      <c r="C126" s="6">
+        <v>6.3024399999999994E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>5.4162799999999997E-2</v>
+      </c>
+      <c r="B127" s="6">
+        <v>6.2628400000000001E-2</v>
+      </c>
+      <c r="C127" s="6">
+        <v>6.2628400000000001E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>5.38193E-2</v>
+      </c>
+      <c r="B128" s="6">
+        <v>6.2237899999999999E-2</v>
+      </c>
+      <c r="C128" s="6">
+        <v>6.2237899999999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>5.3480600000000003E-2</v>
+      </c>
+      <c r="B129" s="6">
+        <v>6.1852900000000002E-2</v>
+      </c>
+      <c r="C129" s="6">
+        <v>6.1852900000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B16" zoomScale="163" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>2.82843</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2.82843</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2.82843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.4139999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>0.97021199999999996</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.97021199999999996</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.97021199999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>0.87384099999999998</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.87384099999999998</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.87384099999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>0.724854</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.724854</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.724854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>0.61312100000000003</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.61312100000000003</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.61312100000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>0.55841600000000002</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.55841600000000002</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.55841600000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>0.47702</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.47702</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.47702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>0.44892900000000002</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.44892900000000002</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.44892900000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>0.39102999999999999</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.39102999999999999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.39102999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>0.37331199999999998</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.37331199999999998</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.37331199999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>0.33110600000000001</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.33110600000000001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.33110600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>0.31842300000000001</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.31842300000000001</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.31842300000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>0.28672799999999998</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.28672799999999998</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.28672799999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>0.27691399999999999</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.27691399999999999</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.27691399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>0.25245299999999998</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.25245299999999998</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.25245299999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>0.244474</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.244474</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.244474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>0.22514400000000001</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.22514400000000001</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.22514400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>0.218444</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.218444</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.218444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>0.20285400000000001</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.20285400000000001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.20285400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>0.1971</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.1971</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.1971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>0.184306</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.184306</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.184306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>0.179284</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.179284</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.179284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>0.168626</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.168626</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.168626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>0.164188</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.164188</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.164188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>0.155191</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.155191</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.155191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>0.151231</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.151231</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.151231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>0.14354900000000001</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.14354900000000001</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.14354900000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>0.139988</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.139988</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.139988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>0.13336200000000001</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.13336200000000001</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.13336200000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>0.130138</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.130138</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.130138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>0.12436999999999999</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.12436999999999999</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.12436999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>0.121435</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0.121435</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.121435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>0.11637500000000001</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0.11637500000000001</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.11637500000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>0.11369</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.11369</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.11369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>0.109218</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.109218</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.109218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>0.10675</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.10675</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.10675</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>0.102772</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.102772</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.102772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>0.100496</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.100496</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.100496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>9.6935900000000005E-2</v>
+      </c>
+      <c r="B41" s="6">
+        <v>9.6935900000000005E-2</v>
+      </c>
+      <c r="C41" s="6">
+        <v>9.6934000000000006E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>9.4829200000000002E-2</v>
+      </c>
+      <c r="B42" s="6">
+        <v>9.4829200000000002E-2</v>
+      </c>
+      <c r="C42" s="6">
+        <v>9.4810500000000006E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>9.1625700000000004E-2</v>
+      </c>
+      <c r="B43" s="6">
+        <v>9.1625700000000004E-2</v>
+      </c>
+      <c r="C43" s="6">
+        <v>9.1490199999999994E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>8.9669499999999999E-2</v>
+      </c>
+      <c r="B44" s="6">
+        <v>8.9669499999999999E-2</v>
+      </c>
+      <c r="C44" s="6">
+        <v>8.8943999999999995E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>8.6772600000000005E-2</v>
+      </c>
+      <c r="B45" s="6">
+        <v>8.6772600000000005E-2</v>
+      </c>
+      <c r="C45" s="6">
+        <v>8.3977399999999994E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>8.4950899999999996E-2</v>
+      </c>
+      <c r="B46" s="6">
+        <v>8.4950899999999996E-2</v>
+      </c>
+      <c r="C46" s="6">
+        <v>7.7175800000000003E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>8.2319199999999995E-2</v>
+      </c>
+      <c r="B47" s="6">
+        <v>8.2319199999999995E-2</v>
+      </c>
+      <c r="C47" s="6">
+        <v>6.7158700000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>8.0618200000000001E-2</v>
+      </c>
+      <c r="B48" s="6">
+        <v>8.0618200000000001E-2</v>
+      </c>
+      <c r="C48" s="6">
+        <v>5.8244499999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>7.8217400000000006E-2</v>
+      </c>
+      <c r="B49" s="6">
+        <v>7.8217400000000006E-2</v>
+      </c>
+      <c r="C49" s="6">
+        <v>4.8784099999999997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>7.6625100000000002E-2</v>
+      </c>
+      <c r="B50" s="6">
+        <v>7.6625100000000002E-2</v>
+      </c>
+      <c r="C50" s="6">
+        <v>3.77597E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>7.4426199999999998E-2</v>
+      </c>
+      <c r="B51" s="6">
+        <v>7.4426199999999998E-2</v>
+      </c>
+      <c r="C51" s="6">
+        <v>3.3208599999999998E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>7.2932300000000005E-2</v>
+      </c>
+      <c r="B52" s="6">
+        <v>7.2932300000000005E-2</v>
+      </c>
+      <c r="C52" s="6">
+        <v>3.7059799999999997E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>7.0911100000000005E-2</v>
+      </c>
+      <c r="B53" s="6">
+        <v>7.0911100000000005E-2</v>
+      </c>
+      <c r="C53" s="6">
+        <v>3.8025000000000003E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>6.9506399999999996E-2</v>
+      </c>
+      <c r="B54" s="6">
+        <v>6.9506399999999996E-2</v>
+      </c>
+      <c r="C54" s="6">
+        <v>3.8049300000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>6.76422E-2</v>
+      </c>
+      <c r="B55" s="6">
+        <v>6.76422E-2</v>
+      </c>
+      <c r="C55" s="6">
+        <v>3.5735700000000002E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>6.6318799999999997E-2</v>
+      </c>
+      <c r="B56" s="6">
+        <v>6.6318799999999997E-2</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3.2627999999999997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>6.4593899999999996E-2</v>
+      </c>
+      <c r="B57" s="6">
+        <v>6.4593899999999996E-2</v>
+      </c>
+      <c r="C57" s="6">
+        <v>3.4512099999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>6.3344700000000004E-2</v>
+      </c>
+      <c r="B58" s="6">
+        <v>6.3344700000000004E-2</v>
+      </c>
+      <c r="C58" s="6">
+        <v>3.7711099999999997E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>6.1744E-2</v>
+      </c>
+      <c r="B59" s="6">
+        <v>6.1744E-2</v>
+      </c>
+      <c r="C59" s="6">
+        <v>3.2334599999999998E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>6.0562699999999997E-2</v>
+      </c>
+      <c r="B60" s="6">
+        <v>6.0562699999999997E-2</v>
+      </c>
+      <c r="C60" s="6">
+        <v>3.0187599999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>5.9073199999999999E-2</v>
+      </c>
+      <c r="B61" s="6">
+        <v>5.9073199999999999E-2</v>
+      </c>
+      <c r="C61" s="6">
+        <v>3.2606799999999998E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>5.7954199999999997E-2</v>
+      </c>
+      <c r="B62" s="6">
+        <v>5.7954199999999997E-2</v>
+      </c>
+      <c r="C62" s="6">
+        <v>3.3161299999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>5.6564400000000001E-2</v>
+      </c>
+      <c r="B63" s="6">
+        <v>5.6564400000000001E-2</v>
+      </c>
+      <c r="C63" s="6">
+        <v>3.0247900000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>5.5502799999999998E-2</v>
+      </c>
+      <c r="B64" s="6">
+        <v>5.5502799999999998E-2</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2.9976599999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>5.4202899999999998E-2</v>
+      </c>
+      <c r="B65" s="6">
+        <v>5.4202899999999998E-2</v>
+      </c>
+      <c r="C65" s="6">
+        <v>3.2827299999999997E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>5.3194100000000001E-2</v>
+      </c>
+      <c r="B66" s="6">
+        <v>5.3194100000000001E-2</v>
+      </c>
+      <c r="C66" s="6">
+        <v>3.1391700000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>5.1975500000000001E-2</v>
+      </c>
+      <c r="B67" s="6">
+        <v>5.1975500000000001E-2</v>
+      </c>
+      <c r="C67" s="6">
+        <v>2.8311900000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>5.1015499999999998E-2</v>
+      </c>
+      <c r="B68" s="6">
+        <v>5.1015499999999998E-2</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2.9265300000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>4.9870499999999998E-2</v>
+      </c>
+      <c r="B69" s="6">
+        <v>4.9870499999999998E-2</v>
+      </c>
+      <c r="C69" s="6">
+        <v>3.0655100000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>4.8955699999999998E-2</v>
+      </c>
+      <c r="B70" s="6">
+        <v>4.8955699999999998E-2</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2.8948499999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>4.7877599999999999E-2</v>
+      </c>
+      <c r="B71" s="6">
+        <v>4.7877599999999999E-2</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2.7763599999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>4.7004799999999999E-2</v>
+      </c>
+      <c r="B72" s="6">
+        <v>4.7004799999999999E-2</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2.9269699999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>4.5987699999999999E-2</v>
+      </c>
+      <c r="B73" s="6">
+        <v>4.5987699999999999E-2</v>
+      </c>
+      <c r="C73" s="6">
+        <v>2.90371E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>4.5153699999999998E-2</v>
+      </c>
+      <c r="B74" s="6">
+        <v>4.5153699999999998E-2</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2.7505999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>4.41924E-2</v>
+      </c>
+      <c r="B75" s="6">
+        <v>4.41924E-2</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2.7792500000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>4.3394700000000001E-2</v>
+      </c>
+      <c r="B76" s="6">
+        <v>4.3394700000000001E-2</v>
+      </c>
+      <c r="C76" s="6">
+        <v>2.83383E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>4.2484300000000003E-2</v>
+      </c>
+      <c r="B77" s="6">
+        <v>4.2484300000000003E-2</v>
+      </c>
+      <c r="C77" s="6">
+        <v>2.7432999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>4.1720300000000002E-2</v>
+      </c>
+      <c r="B78" s="6">
+        <v>4.1720300000000002E-2</v>
+      </c>
+      <c r="C78" s="6">
+        <v>2.7214700000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>4.0856799999999999E-2</v>
+      </c>
+      <c r="B79" s="6">
+        <v>4.0856799999999999E-2</v>
+      </c>
+      <c r="C79" s="6">
+        <v>2.71442E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>4.0124300000000002E-2</v>
+      </c>
+      <c r="B80" s="6">
+        <v>4.0124300000000002E-2</v>
+      </c>
+      <c r="C80" s="6">
+        <v>2.6762000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>3.93038E-2</v>
+      </c>
+      <c r="B81" s="6">
+        <v>3.93038E-2</v>
+      </c>
+      <c r="C81" s="6">
+        <v>2.6777499999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>3.8600799999999998E-2</v>
+      </c>
+      <c r="B82" s="6">
+        <v>3.8600799999999998E-2</v>
+      </c>
+      <c r="C82" s="6">
+        <v>2.69993E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>3.7819999999999999E-2</v>
+      </c>
+      <c r="B83" s="6">
+        <v>3.7819999999999999E-2</v>
+      </c>
+      <c r="C83" s="6">
+        <v>2.61237E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>3.7144499999999997E-2</v>
+      </c>
+      <c r="B84" s="6">
+        <v>3.7144499999999997E-2</v>
+      </c>
+      <c r="C84" s="6">
+        <v>2.57936E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>3.6400299999999997E-2</v>
+      </c>
+      <c r="B85" s="6">
+        <v>3.6400299999999997E-2</v>
+      </c>
+      <c r="C85" s="6">
+        <v>2.5869799999999998E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>3.57506E-2</v>
+      </c>
+      <c r="B86" s="6">
+        <v>3.57506E-2</v>
+      </c>
+      <c r="C86" s="6">
+        <v>2.5599500000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>3.5040200000000001E-2</v>
+      </c>
+      <c r="B87" s="6">
+        <v>3.5040200000000001E-2</v>
+      </c>
+      <c r="C87" s="6">
+        <v>2.4976399999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>3.4414699999999999E-2</v>
+      </c>
+      <c r="B88" s="6">
+        <v>3.4414699999999999E-2</v>
+      </c>
+      <c r="C88" s="6">
+        <v>2.52848E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>3.3735599999999998E-2</v>
+      </c>
+      <c r="B89" s="6">
+        <v>3.3735599999999998E-2</v>
+      </c>
+      <c r="C89" s="6">
+        <v>2.5234199999999998E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>3.3132700000000001E-2</v>
+      </c>
+      <c r="B90" s="6">
+        <v>3.3132700000000001E-2</v>
+      </c>
+      <c r="C90" s="6">
+        <v>2.4766699999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>3.2482299999999999E-2</v>
+      </c>
+      <c r="B91" s="6">
+        <v>3.2482299999999999E-2</v>
+      </c>
+      <c r="C91" s="6">
+        <v>2.4421600000000002E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>3.1899799999999999E-2</v>
+      </c>
+      <c r="B92" s="6">
+        <v>3.1899799999999999E-2</v>
+      </c>
+      <c r="C92" s="6">
+        <v>2.4294199999999998E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>3.1275600000000001E-2</v>
+      </c>
+      <c r="B93" s="6">
+        <v>3.1275600000000001E-2</v>
+      </c>
+      <c r="C93" s="6">
+        <v>2.4019800000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>3.0713299999999999E-2</v>
+      </c>
+      <c r="B94" s="6">
+        <v>3.0713299999999999E-2</v>
+      </c>
+      <c r="C94" s="6">
+        <v>2.3978099999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>3.01179E-2</v>
+      </c>
+      <c r="B95" s="6">
+        <v>3.01179E-2</v>
+      </c>
+      <c r="C95" s="6">
+        <v>2.3644100000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>2.9581400000000001E-2</v>
+      </c>
+      <c r="B96" s="6">
+        <v>2.9581400000000001E-2</v>
+      </c>
+      <c r="C96" s="6">
+        <v>2.33516E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>2.90184E-2</v>
+      </c>
+      <c r="B97" s="6">
+        <v>2.90184E-2</v>
+      </c>
+      <c r="C97" s="6">
+        <v>2.3392699999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>2.8503799999999999E-2</v>
+      </c>
+      <c r="B98" s="6">
+        <v>2.8503799999999999E-2</v>
+      </c>
+      <c r="C98" s="6">
+        <v>2.3274799999999998E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>2.79598E-2</v>
+      </c>
+      <c r="B99" s="6">
+        <v>2.79598E-2</v>
+      </c>
+      <c r="C99" s="6">
+        <v>2.2633E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>2.7458900000000001E-2</v>
+      </c>
+      <c r="B100" s="6">
+        <v>2.7458900000000001E-2</v>
+      </c>
+      <c r="C100" s="6">
+        <v>2.2616500000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>2.6940800000000001E-2</v>
+      </c>
+      <c r="B101" s="6">
+        <v>2.6940800000000001E-2</v>
+      </c>
+      <c r="C101" s="6">
+        <v>2.2719799999999998E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>2.6465900000000001E-2</v>
+      </c>
+      <c r="B102" s="6">
+        <v>2.6465900000000001E-2</v>
+      </c>
+      <c r="C102" s="6">
+        <v>2.2178E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>2.5969699999999998E-2</v>
+      </c>
+      <c r="B103" s="6">
+        <v>2.5969699999999998E-2</v>
+      </c>
+      <c r="C103" s="6">
+        <v>2.1860000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>2.55067E-2</v>
+      </c>
+      <c r="B104" s="6">
+        <v>2.55067E-2</v>
+      </c>
+      <c r="C104" s="6">
+        <v>2.2040400000000002E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>2.5032599999999999E-2</v>
+      </c>
+      <c r="B105" s="6">
+        <v>2.5032599999999999E-2</v>
+      </c>
+      <c r="C105" s="6">
+        <v>2.1624600000000001E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>2.4593E-2</v>
+      </c>
+      <c r="B106" s="6">
+        <v>2.4593E-2</v>
+      </c>
+      <c r="C106" s="6">
+        <v>2.1277899999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>2.4136700000000001E-2</v>
+      </c>
+      <c r="B107" s="6">
+        <v>2.4136700000000001E-2</v>
+      </c>
+      <c r="C107" s="6">
+        <v>2.1409000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>2.3709600000000001E-2</v>
+      </c>
+      <c r="B108" s="6">
+        <v>2.3709600000000001E-2</v>
+      </c>
+      <c r="C108" s="6">
+        <v>2.1012300000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>2.3276499999999999E-2</v>
+      </c>
+      <c r="B109" s="6">
+        <v>2.3276499999999999E-2</v>
+      </c>
+      <c r="C109" s="6">
+        <v>2.04482E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>2.28673E-2</v>
+      </c>
+      <c r="B110" s="6">
+        <v>2.28673E-2</v>
+      </c>
+      <c r="C110" s="6">
+        <v>2.0476399999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>2.2447399999999999E-2</v>
+      </c>
+      <c r="B111" s="6">
+        <v>2.2447399999999999E-2</v>
+      </c>
+      <c r="C111" s="6">
+        <v>2.0073500000000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>2.2055399999999999E-2</v>
+      </c>
+      <c r="B112" s="6">
+        <v>2.2055399999999999E-2</v>
+      </c>
+      <c r="C112" s="6">
+        <v>1.9228499999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>2.16557E-2</v>
+      </c>
+      <c r="B113" s="6">
+        <v>2.16557E-2</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1.90349E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>2.1274299999999999E-2</v>
+      </c>
+      <c r="B114" s="6">
+        <v>2.1274299999999999E-2</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1.8662000000000002E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>2.0891699999999999E-2</v>
+      </c>
+      <c r="B115" s="6">
+        <v>2.0891699999999999E-2</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1.7471299999999999E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>2.0527199999999999E-2</v>
+      </c>
+      <c r="B116" s="6">
+        <v>2.0527199999999999E-2</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1.6670299999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>2.01566E-2</v>
+      </c>
+      <c r="B117" s="6">
+        <v>2.01566E-2</v>
+      </c>
+      <c r="C117" s="6">
+        <v>1.6235099999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>1.9806600000000001E-2</v>
+      </c>
+      <c r="B118" s="6">
+        <v>1.9806600000000001E-2</v>
+      </c>
+      <c r="C118" s="6">
+        <v>1.52187E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>1.94526E-2</v>
+      </c>
+      <c r="B119" s="6">
+        <v>1.94526E-2</v>
+      </c>
+      <c r="C119" s="6">
+        <v>1.43725E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>1.9112400000000002E-2</v>
+      </c>
+      <c r="B120" s="6">
+        <v>1.9112400000000002E-2</v>
+      </c>
+      <c r="C120" s="6">
+        <v>1.41371E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>1.8773999999999999E-2</v>
+      </c>
+      <c r="B121" s="6">
+        <v>1.8773999999999999E-2</v>
+      </c>
+      <c r="C121" s="6">
+        <v>1.3878100000000001E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>1.8446799999999999E-2</v>
+      </c>
+      <c r="B122" s="6">
+        <v>1.8446799999999999E-2</v>
+      </c>
+      <c r="C122" s="6">
+        <v>1.39471E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>1.8119300000000001E-2</v>
+      </c>
+      <c r="B123" s="6">
+        <v>1.8119300000000001E-2</v>
+      </c>
+      <c r="C123" s="6">
+        <v>1.4984900000000001E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>1.7806200000000001E-2</v>
+      </c>
+      <c r="B124" s="6">
+        <v>1.7806200000000001E-2</v>
+      </c>
+      <c r="C124" s="6">
+        <v>1.5914399999999999E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>1.74904E-2</v>
+      </c>
+      <c r="B125" s="6">
+        <v>1.74904E-2</v>
+      </c>
+      <c r="C125" s="6">
+        <v>1.6096099999999999E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>1.7187500000000001E-2</v>
+      </c>
+      <c r="B126" s="6">
+        <v>1.7187500000000001E-2</v>
+      </c>
+      <c r="C126" s="6">
+        <v>1.55131E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>1.6885899999999999E-2</v>
+      </c>
+      <c r="B127" s="6">
+        <v>1.6885899999999999E-2</v>
+      </c>
+      <c r="C127" s="6">
+        <v>1.42843E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>1.65919E-2</v>
+      </c>
+      <c r="B128" s="6">
+        <v>1.65919E-2</v>
+      </c>
+      <c r="C128" s="6">
+        <v>1.41373E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>1.6302299999999999E-2</v>
+      </c>
+      <c r="B129" s="6">
+        <v>1.6302299999999999E-2</v>
+      </c>
+      <c r="C129" s="6">
+        <v>1.5741000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>